--- a/xlsx/美国同性婚姻_intext.xlsx
+++ b/xlsx/美国同性婚姻_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="678">
   <si>
     <t>美国同性婚姻</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>同性結合</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国同性婚姻</t>
+    <t>同性结合</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>丹麥同性婚姻</t>
+    <t>丹麦同性婚姻</t>
   </si>
   <si>
     <t>[9]</t>
@@ -116,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>法國同性婚姻</t>
+    <t>法国同性婚姻</t>
   </si>
   <si>
     <t>[10]</t>
@@ -128,19 +128,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>烏拉圭同性婚姻</t>
+    <t>乌拉圭同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>紐西蘭同性婚姻</t>
+    <t>纽西兰同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>盧森堡同性婚姻</t>
+    <t>卢森堡同性婚姻</t>
   </si>
   <si>
     <t>[12]</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>愛爾蘭同性婚姻</t>
+    <t>爱尔兰同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>哥倫比亞同性婚姻</t>
+    <t>哥伦比亚同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>芬蘭同性婚姻</t>
+    <t>芬兰同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>德國同性婚姻</t>
+    <t>德国同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>澳大利亞同性婚姻</t>
+    <t>澳大利亚同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>奧地利同性婚姻</t>
+    <t>奥地利同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>臺灣同性婚姻</t>
+    <t>台湾同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -206,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>曼島同性婚姻</t>
+    <t>曼岛同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -236,43 +236,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>民事結合</t>
+    <t>民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%90%8C%E6%80%A7%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>安道爾同性結合</t>
+    <t>安道尔同性结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%A8%BB%E5%86%8A%E4%BC%B4%E4%BE%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>捷克註冊伴侶關係</t>
+    <t>捷克注册伴侣关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%A8%BB%E5%86%8A%E4%BC%B4%E4%BE%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>瑞士註冊伴侶關係</t>
+    <t>瑞士注册伴侣关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>厄瓜多爾民事結合</t>
+    <t>厄瓜多尔民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>匈牙利民事結合</t>
+    <t>匈牙利民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>列支敦士登民事結合</t>
+    <t>列支敦士登民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%B0%91%E4%BA%8B%E5%90%8C%E5%B1%85</t>
@@ -284,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%A8%BB%E5%86%8A%E4%BC%B4%E4%BE%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>斯洛文尼亞註冊伴侶關係</t>
+    <t>斯洛文尼亚注册伴侣关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -296,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB%E5%A4%A7%E4%BA%8B%E7%B4%80</t>
   </si>
   <si>
-    <t>同性婚姻大事紀</t>
+    <t>同性婚姻大事纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -338,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%89%98%E6%B4%9B%E7%B9%86%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴托洛繆島</t>
+    <t>圣巴托洛缪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
@@ -386,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%84%E7%89%B9</t>
   </si>
   <si>
-    <t>馬約特</t>
+    <t>马约特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -428,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
@@ -488,19 +488,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%B4%9D%E6%A0%BC%E8%B4%B9%E5%B0%94%E8%AF%89%E9%9C%8D%E5%A5%87%E6%96%AF%E6%A1%88</t>
@@ -512,25 +512,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%95%B6%E6%B3%95%E5%BE%8B%E7%A8%8B%E5%BA%8F</t>
   </si>
   <si>
-    <t>正當法律程序</t>
+    <t>正当法律程序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法修正案</t>
+    <t>美国宪法修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%BF%9D%E8%AD%B7%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>平等保護條款</t>
+    <t>平等保护条款</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baehr_v._Miike</t>
@@ -548,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
@@ -572,9 +572,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E6%B8%A9%E8%8E%8E%E6%A1%88</t>
   </si>
   <si>
@@ -626,43 +623,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E5%B8%B6</t>
   </si>
   <si>
-    <t>聖經帶</t>
+    <t>圣经带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西部</t>
+    <t>美国西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B410%E6%9C%88</t>
@@ -686,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>加利福尼亞</t>
+    <t>加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -722,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>哥倫比亞特區</t>
+    <t>哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -734,9 +731,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
@@ -818,9 +812,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE</t>
   </si>
   <si>
@@ -848,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%85%8B%E7%B8%A3_(%E6%84%9B%E9%98%BF%E8%8F%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波爾克縣 (愛阿華州)</t>
+    <t>波尔克县 (爱阿华州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -860,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
   </si>
   <si>
-    <t>違憲</t>
+    <t>违宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -872,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E7%BB%93%E5%90%88</t>
   </si>
   <si>
-    <t>民事结合</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
@@ -902,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E5%BA%93%E9%BB%98</t>
@@ -920,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
   </si>
   <si>
-    <t>安東尼·肯尼迪</t>
+    <t>安东尼·肯尼迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -932,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%C2%B7%E5%85%8B%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>希拉里·克林頓</t>
+    <t>希拉里·克林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%B8%83%C2%B7%E5%B8%83%E5%B8%8C</t>
   </si>
   <si>
-    <t>傑布·布希</t>
+    <t>杰布·布希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -980,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -998,13 +986,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>中華人民共和國同性婚姻</t>
+    <t>中华人民共和国同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>寮國LGBT權益</t>
+    <t>寮国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1028,31 +1016,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>奧地利民事結合</t>
+    <t>奥地利民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>愛爾蘭民事結合</t>
+    <t>爱尔兰民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>曼島民事結合</t>
+    <t>曼岛民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>澤西島民事結合</t>
+    <t>泽西岛民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%9C%81%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>不列顛哥倫比亞省同性婚姻</t>
+    <t>不列颠哥伦比亚省同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1064,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD%E8%A8%BB%E5%86%8A%E4%BC%B4%E4%BE%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>格陵蘭註冊伴侶關係</t>
+    <t>格陵兰注册伴侣关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1094,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>伊利諾州同性婚姻</t>
+    <t>伊利诺州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1106,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>緬因州同性婚姻</t>
+    <t>缅因州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1118,25 +1106,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>馬里蘭州同性婚姻</t>
+    <t>马里兰州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>明尼蘇達州同性婚姻</t>
+    <t>明尼苏达州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>新罕布什爾州同性婚姻</t>
+    <t>新罕布什尔州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>新澤西州同性婚姻</t>
+    <t>新泽西州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1148,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>賓夕法尼亞州同性婚姻</t>
+    <t>宾夕法尼亚州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>羅德島州同性婚姻</t>
+    <t>罗德岛州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -1172,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>華盛頓州同性婚姻</t>
+    <t>华盛顿州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1190,9 +1178,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>澳大利亚同性婚姻</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
@@ -1208,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1232,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1280,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1292,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1322,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1334,9 +1319,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
@@ -1346,9 +1328,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -1358,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1370,9 +1349,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -1394,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1424,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -1448,13 +1424,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1466,13 +1442,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1520,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1532,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1556,15 +1532,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
@@ -1574,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1586,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1622,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1634,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1646,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1658,13 +1628,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1712,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1724,13 +1694,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1742,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1754,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1766,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1796,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1868,15 +1838,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1886,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
@@ -1934,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1970,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1988,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2024,19 +1991,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2048,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -2066,25 +2033,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>美國同性婚姻</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E6%86%B2%E6%B3%95%E5%A9%9A%E5%A7%BB%E4%BF%AE%E6%AD%A3%E6%A1%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州憲法婚姻修正案列表</t>
+    <t>美国州宪法婚姻修正案列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>紐約州同性婚姻</t>
+    <t>纽约州同性婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>俄勒岡州同性婚姻</t>
+    <t>俄勒冈州同性婚姻</t>
   </si>
 </sst>
 </file>
@@ -5819,7 +5783,7 @@
         <v>184</v>
       </c>
       <c r="F117" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -5845,10 +5809,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>185</v>
+      </c>
+      <c r="F118" t="s">
         <v>186</v>
-      </c>
-      <c r="F118" t="s">
-        <v>187</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5874,10 +5838,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>187</v>
+      </c>
+      <c r="F119" t="s">
         <v>188</v>
-      </c>
-      <c r="F119" t="s">
-        <v>189</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5903,10 +5867,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>189</v>
+      </c>
+      <c r="F120" t="s">
         <v>190</v>
-      </c>
-      <c r="F120" t="s">
-        <v>191</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5932,10 +5896,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" t="s">
         <v>192</v>
-      </c>
-      <c r="F121" t="s">
-        <v>193</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5961,10 +5925,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>193</v>
+      </c>
+      <c r="F122" t="s">
         <v>194</v>
-      </c>
-      <c r="F122" t="s">
-        <v>195</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5990,10 +5954,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" t="s">
         <v>196</v>
-      </c>
-      <c r="F123" t="s">
-        <v>197</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6019,10 +5983,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" t="s">
         <v>198</v>
-      </c>
-      <c r="F124" t="s">
-        <v>199</v>
       </c>
       <c r="G124" t="n">
         <v>11</v>
@@ -6048,10 +6012,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>199</v>
+      </c>
+      <c r="F125" t="s">
         <v>200</v>
-      </c>
-      <c r="F125" t="s">
-        <v>201</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6077,10 +6041,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>201</v>
+      </c>
+      <c r="F126" t="s">
         <v>202</v>
-      </c>
-      <c r="F126" t="s">
-        <v>203</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6106,10 +6070,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>203</v>
+      </c>
+      <c r="F127" t="s">
         <v>204</v>
-      </c>
-      <c r="F127" t="s">
-        <v>205</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -6135,10 +6099,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>205</v>
+      </c>
+      <c r="F128" t="s">
         <v>206</v>
-      </c>
-      <c r="F128" t="s">
-        <v>207</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6164,10 +6128,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>207</v>
+      </c>
+      <c r="F129" t="s">
         <v>208</v>
-      </c>
-      <c r="F129" t="s">
-        <v>209</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6193,10 +6157,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>209</v>
+      </c>
+      <c r="F130" t="s">
         <v>210</v>
-      </c>
-      <c r="F130" t="s">
-        <v>211</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -6222,10 +6186,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>211</v>
+      </c>
+      <c r="F131" t="s">
         <v>212</v>
-      </c>
-      <c r="F131" t="s">
-        <v>213</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6251,10 +6215,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" t="s">
         <v>214</v>
-      </c>
-      <c r="F132" t="s">
-        <v>215</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6280,10 +6244,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>215</v>
+      </c>
+      <c r="F133" t="s">
         <v>216</v>
-      </c>
-      <c r="F133" t="s">
-        <v>217</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6309,10 +6273,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>217</v>
+      </c>
+      <c r="F134" t="s">
         <v>218</v>
-      </c>
-      <c r="F134" t="s">
-        <v>219</v>
       </c>
       <c r="G134" t="n">
         <v>5</v>
@@ -6338,10 +6302,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>219</v>
+      </c>
+      <c r="F135" t="s">
         <v>220</v>
-      </c>
-      <c r="F135" t="s">
-        <v>221</v>
       </c>
       <c r="G135" t="n">
         <v>10</v>
@@ -6367,10 +6331,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>221</v>
+      </c>
+      <c r="F136" t="s">
         <v>222</v>
-      </c>
-      <c r="F136" t="s">
-        <v>223</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -6396,10 +6360,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>223</v>
+      </c>
+      <c r="F137" t="s">
         <v>224</v>
-      </c>
-      <c r="F137" t="s">
-        <v>225</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6425,10 +6389,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>225</v>
+      </c>
+      <c r="F138" t="s">
         <v>226</v>
-      </c>
-      <c r="F138" t="s">
-        <v>227</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6454,10 +6418,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>227</v>
+      </c>
+      <c r="F139" t="s">
         <v>228</v>
-      </c>
-      <c r="F139" t="s">
-        <v>229</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6483,10 +6447,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>229</v>
+      </c>
+      <c r="F140" t="s">
         <v>230</v>
-      </c>
-      <c r="F140" t="s">
-        <v>231</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6512,10 +6476,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>231</v>
+      </c>
+      <c r="F141" t="s">
         <v>232</v>
-      </c>
-      <c r="F141" t="s">
-        <v>233</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6541,10 +6505,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>233</v>
+      </c>
+      <c r="F142" t="s">
         <v>234</v>
-      </c>
-      <c r="F142" t="s">
-        <v>235</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6570,10 +6534,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>235</v>
+      </c>
+      <c r="F143" t="s">
         <v>236</v>
-      </c>
-      <c r="F143" t="s">
-        <v>237</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -6599,10 +6563,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F144" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6628,10 +6592,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F145" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6657,10 +6621,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F146" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G146" t="n">
         <v>9</v>
@@ -6686,10 +6650,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F147" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6715,10 +6679,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F148" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6744,10 +6708,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6773,10 +6737,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F150" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -6802,10 +6766,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F151" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G151" t="n">
         <v>9</v>
@@ -6831,10 +6795,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6889,10 +6853,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6918,10 +6882,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6947,10 +6911,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F156" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6976,10 +6940,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F157" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G157" t="n">
         <v>6</v>
@@ -7005,10 +6969,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F158" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7034,10 +6998,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F159" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -7063,10 +7027,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7092,10 +7056,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F161" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7121,10 +7085,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7150,10 +7114,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F163" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G163" t="n">
         <v>9</v>
@@ -7179,10 +7143,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F164" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7237,10 +7201,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F166" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -7266,10 +7230,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F167" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7295,10 +7259,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F168" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7324,10 +7288,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F169" t="s">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7353,10 +7317,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F170" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7382,10 +7346,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F171" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7411,10 +7375,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F172" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7440,10 +7404,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F173" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7469,10 +7433,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F174" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -7498,10 +7462,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F175" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7527,10 +7491,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F176" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -7556,10 +7520,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F177" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7585,10 +7549,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F178" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7614,10 +7578,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F179" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7643,10 +7607,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F180" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7672,10 +7636,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F181" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -7701,10 +7665,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F182" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7730,10 +7694,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F183" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7759,10 +7723,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F184" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7788,10 +7752,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F185" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7817,10 +7781,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F186" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7846,10 +7810,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F187" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7875,10 +7839,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F188" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7904,10 +7868,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F189" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7933,10 +7897,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F190" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7962,10 +7926,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F191" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7991,10 +7955,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F192" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8020,10 +7984,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F193" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8078,10 +8042,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F195" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8107,10 +8071,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F196" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8165,10 +8129,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F198" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8194,10 +8158,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F199" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8223,10 +8187,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F200" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8281,10 +8245,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F202" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8310,10 +8274,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F203" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8339,10 +8303,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F204" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8368,10 +8332,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F205" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8397,10 +8361,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F206" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G206" t="n">
         <v>7</v>
@@ -8426,10 +8390,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F207" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8455,10 +8419,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F208" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8484,10 +8448,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F209" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8513,10 +8477,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F210" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G210" t="n">
         <v>11</v>
@@ -8542,10 +8506,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F211" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -8571,10 +8535,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F212" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -8600,10 +8564,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F213" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8629,10 +8593,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F214" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8658,10 +8622,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F215" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8687,10 +8651,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F216" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G216" t="n">
         <v>5</v>
@@ -8716,10 +8680,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F217" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G217" t="n">
         <v>11</v>
@@ -8745,10 +8709,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F218" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -8774,10 +8738,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F219" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8803,10 +8767,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F220" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8832,10 +8796,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F221" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8861,10 +8825,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F222" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G222" t="n">
         <v>6</v>
@@ -8890,10 +8854,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F223" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G223" t="n">
         <v>12</v>
@@ -8919,10 +8883,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F224" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8948,10 +8912,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F225" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8977,10 +8941,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F226" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9035,10 +8999,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F228" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9064,10 +9028,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F229" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G229" t="n">
         <v>5</v>
@@ -9093,10 +9057,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F230" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9122,10 +9086,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F231" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9151,10 +9115,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F232" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9180,10 +9144,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F233" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9209,10 +9173,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F234" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9238,10 +9202,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F235" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9267,10 +9231,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F236" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9296,10 +9260,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F237" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9325,10 +9289,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F238" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9354,10 +9318,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F239" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9383,10 +9347,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F240" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9412,10 +9376,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F241" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9441,10 +9405,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F242" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9470,10 +9434,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F243" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9499,10 +9463,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F244" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9528,10 +9492,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F245" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9557,10 +9521,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F246" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9586,10 +9550,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F247" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9615,10 +9579,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F248" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9644,10 +9608,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F249" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9673,10 +9637,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F250" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9702,10 +9666,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F251" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9731,10 +9695,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F252" t="s">
-        <v>439</v>
+        <v>159</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9760,10 +9724,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F253" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G253" t="n">
         <v>27</v>
@@ -9789,10 +9753,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F254" t="s">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="G254" t="n">
         <v>17</v>
@@ -9818,10 +9782,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F255" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9847,10 +9811,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F256" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9876,10 +9840,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F257" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9905,10 +9869,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F258" t="s">
-        <v>451</v>
+        <v>202</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9934,10 +9898,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F259" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9963,10 +9927,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F260" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -9992,10 +9956,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F261" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10021,10 +9985,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F262" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10050,10 +10014,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F263" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -10079,10 +10043,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F264" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10108,10 +10072,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F265" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10137,10 +10101,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F266" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10166,10 +10130,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F267" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10195,10 +10159,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F268" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10224,10 +10188,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>189</v>
+      </c>
+      <c r="F269" t="s">
         <v>190</v>
-      </c>
-      <c r="F269" t="s">
-        <v>191</v>
       </c>
       <c r="G269" t="n">
         <v>5</v>
@@ -10253,10 +10217,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>187</v>
+      </c>
+      <c r="F270" t="s">
         <v>188</v>
-      </c>
-      <c r="F270" t="s">
-        <v>189</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10282,10 +10246,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F271" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10311,10 +10275,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F272" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10340,10 +10304,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F273" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10369,10 +10333,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F274" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10398,10 +10362,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F275" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10427,10 +10391,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F276" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10456,10 +10420,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F277" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10485,10 +10449,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F278" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10514,10 +10478,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F279" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10543,10 +10507,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F280" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10572,10 +10536,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F281" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10601,10 +10565,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F282" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10630,10 +10594,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F283" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10659,10 +10623,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F284" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10688,10 +10652,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F285" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10717,10 +10681,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F286" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G286" t="n">
         <v>5</v>
@@ -10746,10 +10710,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F287" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10775,10 +10739,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F288" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10804,10 +10768,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F289" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10833,10 +10797,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F290" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10862,10 +10826,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F291" t="s">
-        <v>513</v>
+        <v>210</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10891,10 +10855,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F292" t="s">
-        <v>515</v>
+        <v>204</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10920,10 +10884,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F293" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10949,10 +10913,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F294" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10978,10 +10942,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F295" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11007,10 +10971,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F296" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11036,10 +11000,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F297" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11065,10 +11029,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F298" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11094,10 +11058,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F299" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11123,10 +11087,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F300" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11152,10 +11116,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F301" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11181,10 +11145,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F302" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11210,10 +11174,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F303" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11239,10 +11203,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F304" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11268,10 +11232,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F305" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11297,10 +11261,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>207</v>
+      </c>
+      <c r="F306" t="s">
         <v>208</v>
-      </c>
-      <c r="F306" t="s">
-        <v>209</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11326,10 +11290,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F307" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11355,10 +11319,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F308" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11384,10 +11348,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F309" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11413,10 +11377,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F310" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11442,10 +11406,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F311" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11471,10 +11435,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F312" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11500,10 +11464,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F313" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11529,10 +11493,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F314" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11558,10 +11522,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F315" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G315" t="n">
         <v>7</v>
@@ -11587,10 +11551,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F316" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -11616,10 +11580,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F317" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11645,10 +11609,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F318" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11674,10 +11638,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F319" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11703,10 +11667,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F320" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11732,10 +11696,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F321" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11761,10 +11725,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F322" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11790,10 +11754,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F323" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11819,10 +11783,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F324" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11848,10 +11812,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F325" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11877,10 +11841,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F326" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11906,10 +11870,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F327" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11935,10 +11899,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F328" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11964,10 +11928,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F329" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11993,10 +11957,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F330" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12022,10 +11986,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F331" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12051,10 +12015,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F332" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -12080,10 +12044,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F333" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12109,10 +12073,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F334" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12138,10 +12102,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F335" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12167,10 +12131,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F336" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12196,10 +12160,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F337" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12225,10 +12189,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F338" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G338" t="n">
         <v>6</v>
@@ -12254,10 +12218,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F339" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12283,10 +12247,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F340" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -12312,10 +12276,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F341" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -12341,10 +12305,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F342" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12370,10 +12334,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F343" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="G343" t="n">
         <v>4</v>
@@ -12399,10 +12363,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F344" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12428,10 +12392,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F345" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12457,10 +12421,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F346" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12486,10 +12450,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="F347" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12515,10 +12479,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F348" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12544,10 +12508,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="F349" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -12573,10 +12537,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="F350" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12602,10 +12566,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F351" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12631,10 +12595,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F352" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12660,10 +12624,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F353" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12689,10 +12653,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="F354" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12718,10 +12682,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F355" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12747,10 +12711,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F356" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12776,10 +12740,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F357" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -12805,10 +12769,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="F358" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12834,10 +12798,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F359" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12863,10 +12827,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="F360" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12892,10 +12856,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F361" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12921,10 +12885,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="F362" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12950,10 +12914,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F363" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -12979,10 +12943,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F364" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13008,10 +12972,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F365" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="G365" t="n">
         <v>6</v>
@@ -13037,10 +13001,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="F366" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13066,10 +13030,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="F367" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13095,10 +13059,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F368" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13124,10 +13088,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="F369" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13153,10 +13117,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="F370" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13182,10 +13146,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="F371" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13211,10 +13175,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="F372" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13240,10 +13204,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="F373" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13269,10 +13233,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F374" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13298,10 +13262,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F375" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13327,10 +13291,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="F376" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13356,10 +13320,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F377" t="s">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13385,10 +13349,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F378" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13414,10 +13378,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F379" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13443,10 +13407,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F380" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13472,10 +13436,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F381" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13501,10 +13465,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F382" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="G382" t="n">
         <v>6</v>
@@ -13530,10 +13494,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="F383" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -13559,10 +13523,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F384" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
